--- a/ig/StructureDefinition-sdo-task.xlsx
+++ b/ig/StructureDefinition-sdo-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:52:02+00:00</t>
+    <t>2024-04-30T08:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sdo-task.xlsx
+++ b/ig/StructureDefinition-sdo-task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T08:40:24+00:00</t>
+    <t>2024-11-22T13:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil utilisé pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation</t>
+    <t>Profil ESMS-SDO créé dans le contexte du suivi des orientations pour véhiculer les informations sur la position des ESMS et des unités opérationnelles vis-à-vis de la prestation.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -424,7 +424,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -444,7 +444,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1856,7 +1856,7 @@
     <t>Task.input:modePriseCharge.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_JXX-ModePriseEnCharge/FHIR/JDV_JXX-ModePriseEnCharge/</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH/FHIR/JDV-J264-ModeEtCentreDePriseEnCharge-MDPH</t>
   </si>
   <si>
     <t>Task.input:modePriseCharge.value[x].id</t>
@@ -2511,7 +2511,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="123.12109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="123.671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/ig/StructureDefinition-sdo-task.xlsx
+++ b/ig/StructureDefinition-sdo-task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>4.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:13:12+00:00</t>
+    <t>2025-10-14T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -897,7 +897,7 @@
     <t>Task.description</t>
   </si>
   <si>
-    <t>Human-readable explanation of task</t>
+    <t>A utiliser pour transmettre les commentaires de la MDPH lors d’une annulation d’une notification ou d’un refus de l’admission impossible ou d’une réactivation d’une notification et/ou de l'usager lors d’une annulation d’une notification ou d’une réactivation une notification.</t>
   </si>
   <si>
     <t>A free-text description of what is to be performed.</t>
@@ -1571,7 +1571,7 @@
     <t>dateStatutESMS</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée dans le statut</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut de l'ESMS.</t>
   </si>
   <si>
     <t>Task.input:dateStatutESMS.id</t>
@@ -1917,7 +1917,7 @@
     <t>dateStatutUnite</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée renseignée par l'utilisateur pour les statuts</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut de l’unité.</t>
   </si>
   <si>
     <t>Task.input:dateStatutUnite.id</t>
@@ -2402,15 +2402,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.8203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.85546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2421,26 +2421,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="123.671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="106.02734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="55.72265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="109.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.7734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
